--- a/medicine/Sexualité et sexologie/Demisexualité/Demisexualité.xlsx
+++ b/medicine/Sexualité et sexologie/Demisexualité/Demisexualité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Demisexualit%C3%A9</t>
+          <t>Demisexualité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La demisexualité est une orientation sexuelle du spectre asexuel où une personne ne ressent de l'attirance sexuelle envers une autre personne qu'après avoir formé un lien émotionnel fort avec celle-ci[1],[2],[3],[4],[5],[6]. La demisexualité fait partie du spectre de l'asexualité[7]. Ce terme ne précise pas le genre des personnes pour qui est éprouvée l'attirance : hommes, femmes ou personnes non binaires.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La demisexualité est une orientation sexuelle du spectre asexuel où une personne ne ressent de l'attirance sexuelle envers une autre personne qu'après avoir formé un lien émotionnel fort avec celle-ci. La demisexualité fait partie du spectre de l'asexualité. Ce terme ne précise pas le genre des personnes pour qui est éprouvée l'attirance : hommes, femmes ou personnes non binaires.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Demisexualit%C3%A9</t>
+          <t>Demisexualité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En général, les personnes demisexuelles ne sont sexuellement attirées envers personne. Cependant, si un lien émotionnel fort se développe (qu'il s'agisse d'un sentiment romantique ou d'amitié profonde), une personne demisexuelle peut alors éprouver de l'attirance sexuelle et du désir envers ce partenaire[8]. La plupart des demisexuels rejettent ainsi les coups d'un soir, mais ils peuvent manifester une libido importante pour autant[8].
-The Independent estime que le terme en anglais est apparu en 2006 sur le site web Asexual Visibility and Education Network (AVEN)[8],[9] et il a été utilisé la première fois en français en 2008 par le Réseau pour l’Éducation et la Visibilité de l’Asexualité[10]. Pour les sexologues et psychologues Gislaine Duboc et Maïté Tranzer, la demisexualité est ancienne, mais était désignée par d'autres termes[10].
-Dans le drapeau de la fierté demisexuelle, la couleur noir symbolise l'asexualité, le violet la communauté, le gris représente les personnes « grey-ace » et la demisexualité, et le blanc symbolise la sexualité[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En général, les personnes demisexuelles ne sont sexuellement attirées envers personne. Cependant, si un lien émotionnel fort se développe (qu'il s'agisse d'un sentiment romantique ou d'amitié profonde), une personne demisexuelle peut alors éprouver de l'attirance sexuelle et du désir envers ce partenaire. La plupart des demisexuels rejettent ainsi les coups d'un soir, mais ils peuvent manifester une libido importante pour autant.
+The Independent estime que le terme en anglais est apparu en 2006 sur le site web Asexual Visibility and Education Network (AVEN), et il a été utilisé la première fois en français en 2008 par le Réseau pour l’Éducation et la Visibilité de l’Asexualité. Pour les sexologues et psychologues Gislaine Duboc et Maïté Tranzer, la demisexualité est ancienne, mais était désignée par d'autres termes.
+Dans le drapeau de la fierté demisexuelle, la couleur noir symbolise l'asexualité, le violet la communauté, le gris représente les personnes « grey-ace » et la demisexualité, et le blanc symbolise la sexualité.
 </t>
         </is>
       </c>
